--- a/data_paste.xlsx
+++ b/data_paste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\KDT_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91117F48-7255-421D-B667-B0EA5621C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FDDDD-6D03-4DE7-BACA-F33B0A70B92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="38640" windowHeight="21120" xr2:uid="{4215BA6C-AFF8-4993-BFF8-DE452FE08D8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4215BA6C-AFF8-4993-BFF8-DE452FE08D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="최종 데이터" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{44162869-288F-4638-88B5-38C5846EF082}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{C79EFA2E-6F63-4644-9F52-E9DB148B41B4}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{1DCB624A-A22B-4596-A92E-B10FAA2AC7F1}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{0669C9F9-8DD3-4B1F-9AE8-D94E1438CD32}">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{8E942649-937C-4E2D-B561-2EFD561D3C88}">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{7F3CBD39-D172-448D-962E-30AEFBE9BE9E}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{8577C106-4A22-4324-B899-AC0063E181A9}">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{4FED28CB-FF60-4774-A758-9EE0F0893182}">
       <text>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{307839CD-ED65-4D43-B588-53A5FBB4052E}">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{6E414722-C59B-4E10-9C0B-18E2AE06346D}">
       <text>
         <r>
           <rPr>
@@ -457,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{CDE03879-C3E9-4DCB-80AA-D1EBC3C0FBAF}">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{A5B7FF24-859B-4224-AC43-85F0ACE782B7}">
       <text>
         <r>
           <rPr>
@@ -515,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0" shapeId="0" xr:uid="{815FB65F-C0B4-461D-8182-92FDCB8D3354}">
+    <comment ref="A59" authorId="0" shapeId="0" xr:uid="{D6EDBDB6-0F7A-4E7D-A977-23C2A0109D89}">
       <text>
         <r>
           <rPr>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{7C566F43-3DC7-44BB-965D-04B233B1C8CB}">
+    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{60DECF95-12A7-4613-8840-067BBA4EC697}">
       <text>
         <r>
           <rPr>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20EA86A-738D-45A3-826A-FBDC57540D75}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>142810336079.80115</v>
+        <v>142737677816.67072</v>
       </c>
       <c r="C2" s="5">
         <v>11701428591.330086</v>
@@ -1938,7 +1938,7 @@
         <v>47563681589.360397</v>
       </c>
       <c r="F2" s="5">
-        <v>40305844710.383041</v>
+        <v>40233186447.252609</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1946,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>66160881205.295166</v>
+        <v>66587153920.295166</v>
       </c>
       <c r="C3" s="5">
         <v>739261055.15947473</v>
@@ -1958,7 +1958,7 @@
         <v>14722128435.799589</v>
       </c>
       <c r="F3" s="5">
-        <v>45194892733.295166</v>
+        <v>45621165448.295166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1986,397 +1986,397 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>36176963688</v>
+        <v>35058918332.276611</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>4028910672.5274725</v>
       </c>
       <c r="D5" s="5">
-        <v>33275066141.64706</v>
+        <v>8041869528.6509485</v>
       </c>
       <c r="E5" s="5">
-        <v>1710618666.3529413</v>
+        <v>11665238724.396868</v>
       </c>
       <c r="F5" s="5">
-        <v>1191278880</v>
+        <v>11322899406.701328</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>35058918332.276611</v>
+        <v>19565005175.134781</v>
       </c>
       <c r="C6" s="5">
-        <v>4028910672.5274725</v>
+        <v>747552548.64138043</v>
       </c>
       <c r="D6" s="5">
-        <v>8041869528.6509485</v>
+        <v>2300764228.7272644</v>
       </c>
       <c r="E6" s="5">
-        <v>11665238724.396868</v>
+        <v>5481093986.8697128</v>
       </c>
       <c r="F6" s="5">
-        <v>11322899406.701328</v>
+        <v>11035594410.896421</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>19565005175.134781</v>
+        <v>19310124183.882229</v>
       </c>
       <c r="C7" s="5">
-        <v>747552548.64138043</v>
+        <v>2299810766.8508291</v>
       </c>
       <c r="D7" s="5">
-        <v>2300764228.7272644</v>
+        <v>5887297108.2936802</v>
       </c>
       <c r="E7" s="5">
-        <v>5481093986.8697128</v>
+        <v>5370446094.7976885</v>
       </c>
       <c r="F7" s="5">
-        <v>11035594410.896421</v>
+        <v>5752570213.940032</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>19310124183.882229</v>
+        <v>18259465459.292946</v>
       </c>
       <c r="C8" s="5">
-        <v>2299810766.8508291</v>
+        <v>337679180.72430515</v>
       </c>
       <c r="D8" s="5">
-        <v>5887297108.2936802</v>
+        <v>1315972461.3808622</v>
       </c>
       <c r="E8" s="5">
-        <v>5370446094.7976885</v>
+        <v>4797944993.0363655</v>
       </c>
       <c r="F8" s="5">
-        <v>5752570213.940032</v>
+        <v>11807868824.151411</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>18259465459.292946</v>
+        <v>17795012766.42939</v>
       </c>
       <c r="C9" s="5">
-        <v>337679180.72430515</v>
+        <v>905324446.66017795</v>
       </c>
       <c r="D9" s="5">
-        <v>1315972461.3808622</v>
+        <v>4023853127.3550487</v>
       </c>
       <c r="E9" s="5">
-        <v>4797944993.0363655</v>
+        <v>4198998141.6793761</v>
       </c>
       <c r="F9" s="5">
-        <v>11807868824.151411</v>
+        <v>8666837050.7347889</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>17795012766.42939</v>
+        <v>17637338749.795395</v>
       </c>
       <c r="C10" s="5">
-        <v>905324446.66017795</v>
+        <v>1905788210.5263157</v>
       </c>
       <c r="D10" s="5">
-        <v>4023853127.3550487</v>
+        <v>2338327572.3426213</v>
       </c>
       <c r="E10" s="5">
-        <v>4198998141.6793761</v>
+        <v>4174288155.3084192</v>
       </c>
       <c r="F10" s="5">
-        <v>8666837050.7347889</v>
+        <v>9218934811.6180363</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>17637338749.795395</v>
+        <v>16123049416.107384</v>
       </c>
       <c r="C11" s="5">
-        <v>1905788210.5263157</v>
+        <v>4646400000</v>
       </c>
       <c r="D11" s="5">
-        <v>2338327572.3426213</v>
+        <v>3944762416.1073828</v>
       </c>
       <c r="E11" s="5">
-        <v>4174288155.3084192</v>
+        <v>3129381583.8926172</v>
       </c>
       <c r="F11" s="5">
-        <v>9218934811.6180363</v>
+        <v>4402505416.1073828</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>16123049416.107384</v>
+        <v>15978961073.067226</v>
       </c>
       <c r="C12" s="5">
-        <v>4646400000</v>
+        <v>4291279501.1008725</v>
       </c>
       <c r="D12" s="5">
-        <v>3944762416.1073828</v>
+        <v>5745739264.8840208</v>
       </c>
       <c r="E12" s="5">
-        <v>3129381583.8926172</v>
+        <v>3066969720.1376457</v>
       </c>
       <c r="F12" s="5">
-        <v>4402505416.1073828</v>
+        <v>2874972586.9446864</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>15978961073.067226</v>
+        <v>15831518222.339216</v>
       </c>
       <c r="C13" s="5">
-        <v>4291279501.1008725</v>
+        <v>35561211.661016949</v>
       </c>
       <c r="D13" s="5">
-        <v>5745739264.8840208</v>
+        <v>2718433187.5820007</v>
       </c>
       <c r="E13" s="5">
-        <v>3066969720.1376457</v>
+        <v>5868797676.287674</v>
       </c>
       <c r="F13" s="5">
-        <v>2874972586.9446864</v>
+        <v>7208726146.8085251</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
-        <v>15831518222.339216</v>
+        <v>15490478869.646259</v>
       </c>
       <c r="C14" s="5">
-        <v>35561211.661016949</v>
+        <v>1190954319.4764385</v>
       </c>
       <c r="D14" s="5">
-        <v>2718433187.5820007</v>
+        <v>3600201347.5812793</v>
       </c>
       <c r="E14" s="5">
-        <v>5868797676.287674</v>
+        <v>5549991033.8491564</v>
       </c>
       <c r="F14" s="5">
-        <v>7208726146.8085251</v>
+        <v>5149332168.7393827</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>15490478869.646259</v>
+        <v>15466325556.071892</v>
       </c>
       <c r="C15" s="5">
-        <v>1190954319.4764385</v>
+        <v>1200726510.8160243</v>
       </c>
       <c r="D15" s="5">
-        <v>3600201347.5812793</v>
+        <v>3940765149.0325809</v>
       </c>
       <c r="E15" s="5">
-        <v>5549991033.8491564</v>
+        <v>5090044642.3658295</v>
       </c>
       <c r="F15" s="5">
-        <v>5149332168.7393827</v>
+        <v>5234789253.8574572</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>15466325556.071892</v>
+        <v>15294200433.716747</v>
       </c>
       <c r="C16" s="5">
-        <v>1200726510.8160243</v>
+        <v>3673113.2307692314</v>
       </c>
       <c r="D16" s="5">
-        <v>3940765149.0325809</v>
+        <v>2723473480.4987712</v>
       </c>
       <c r="E16" s="5">
-        <v>5090044642.3658295</v>
+        <v>5575447199.524807</v>
       </c>
       <c r="F16" s="5">
-        <v>5234789253.8574572</v>
+        <v>6991606640.4624014</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>15294200433.716747</v>
+        <v>14634029377.559155</v>
       </c>
       <c r="C17" s="5">
-        <v>3673113.2307692314</v>
+        <v>821902197.18654799</v>
       </c>
       <c r="D17" s="5">
-        <v>2723473480.4987712</v>
+        <v>2972739353.3008676</v>
       </c>
       <c r="E17" s="5">
-        <v>5575447199.524807</v>
+        <v>3941382800.9699216</v>
       </c>
       <c r="F17" s="5">
-        <v>6991606640.4624014</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
+        <v>6898005026.1018181</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
-        <v>14634029377.559155</v>
+        <v>12768064666.046513</v>
       </c>
       <c r="C18" s="5">
-        <v>821902197.18654799</v>
+        <v>1452697788.949527</v>
       </c>
       <c r="D18" s="5">
-        <v>2972739353.3008676</v>
+        <v>2758721355.7398205</v>
       </c>
       <c r="E18" s="5">
-        <v>3941382800.9699216</v>
+        <v>3870487735.3106523</v>
       </c>
       <c r="F18" s="5">
-        <v>6898005026.1018181</v>
+        <v>4686157786.0465117</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
-        <v>12768064666.046513</v>
+        <v>11267898362.56871</v>
       </c>
       <c r="C19" s="5">
-        <v>1452697788.949527</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5">
-        <v>2758721355.7398205</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>3870487735.3106523</v>
+        <v>599186468.57142866</v>
       </c>
       <c r="F19" s="5">
-        <v>4686157786.0465117</v>
+        <v>10668711893.997282</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
-        <v>11267898362.56871</v>
+        <v>11194706748.170876</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>1466773054.5712264</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>4109629856.8784981</v>
       </c>
       <c r="E20" s="5">
-        <v>599186468.57142866</v>
+        <v>2716504566.0069242</v>
       </c>
       <c r="F20" s="5">
-        <v>10668711893.997282</v>
+        <v>2901799270.7142286</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
-        <v>11194706748.170876</v>
+        <v>10093702647.514139</v>
       </c>
       <c r="C21" s="5">
-        <v>1466773054.5712264</v>
+        <v>1257988415.9907458</v>
       </c>
       <c r="D21" s="5">
-        <v>4109629856.8784981</v>
+        <v>2504211579.5559688</v>
       </c>
       <c r="E21" s="5">
-        <v>2716504566.0069242</v>
+        <v>3584792983.1248097</v>
       </c>
       <c r="F21" s="5">
-        <v>2901799270.7142286</v>
+        <v>2746709668.8426151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
-        <v>9938640288.8044624</v>
+        <v>9605733756.4640884</v>
       </c>
       <c r="C22" s="5">
-        <v>1257988415.9907458</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>2504211579.5559688</v>
+        <v>1947056462.4277463</v>
       </c>
       <c r="E22" s="5">
-        <v>3584792983.1248097</v>
+        <v>3936679857.5722537</v>
       </c>
       <c r="F22" s="5">
-        <v>2591647310.1329379</v>
+        <v>3721997436.4640884</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
-        <v>9605733756.4640884</v>
+        <v>9074908575.0553513</v>
       </c>
       <c r="C23" s="5">
-        <v>0</v>
+        <v>32604000</v>
       </c>
       <c r="D23" s="5">
-        <v>1947056462.4277463</v>
+        <v>1921847602.8896816</v>
       </c>
       <c r="E23" s="5">
-        <v>3936679857.5722537</v>
+        <v>2004310698.3301766</v>
       </c>
       <c r="F23" s="5">
-        <v>3721997436.4640884</v>
+        <v>5116146273.835494</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2424,128 +2424,128 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>8561496468.8141537</v>
+        <v>8548890961.7048407</v>
       </c>
       <c r="C26" s="5">
-        <v>32604000</v>
+        <v>107630785.72668478</v>
       </c>
       <c r="D26" s="5">
-        <v>1921847602.8896816</v>
+        <v>1431972305.0415652</v>
       </c>
       <c r="E26" s="5">
-        <v>2004310698.3301766</v>
+        <v>3560997348.2391415</v>
       </c>
       <c r="F26" s="5">
-        <v>4602734167.5942955</v>
+        <v>3448290522.6974497</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
-        <v>8548890961.7048407</v>
+        <v>7788381474.5107727</v>
       </c>
       <c r="C27" s="5">
-        <v>107630785.72668478</v>
+        <v>77557168.092485547</v>
       </c>
       <c r="D27" s="5">
-        <v>1431972305.0415652</v>
+        <v>1880920225.5638492</v>
       </c>
       <c r="E27" s="5">
-        <v>3560997348.2391415</v>
+        <v>2998817998.5839109</v>
       </c>
       <c r="F27" s="5">
-        <v>3448290522.6974497</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
+        <v>2831086082.2705264</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
-        <v>7788381474.5107727</v>
+        <v>7197621332.0269442</v>
       </c>
       <c r="C28" s="5">
-        <v>77557168.092485547</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>1880920225.5638492</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>2998817998.5839109</v>
+        <v>1955553600</v>
       </c>
       <c r="F28" s="5">
-        <v>2831086082.2705264</v>
+        <v>5242067732.0269442</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
-        <v>7197621332.0269442</v>
+        <v>6997648636.4729843</v>
       </c>
       <c r="C29" s="5">
-        <v>0</v>
+        <v>276079688.5070504</v>
       </c>
       <c r="D29" s="5">
-        <v>0</v>
+        <v>692997430.22197151</v>
       </c>
       <c r="E29" s="5">
-        <v>1955553600</v>
+        <v>1397659753.9529881</v>
       </c>
       <c r="F29" s="5">
-        <v>5242067732.0269442</v>
+        <v>4630911763.7909737</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
-        <v>6997648636.4729843</v>
+        <v>6911494148.5381889</v>
       </c>
       <c r="C30" s="5">
-        <v>276079688.5070504</v>
+        <v>448953752.27677071</v>
       </c>
       <c r="D30" s="5">
-        <v>692997430.22197151</v>
+        <v>1743140973.5363173</v>
       </c>
       <c r="E30" s="5">
-        <v>1397659753.9529881</v>
+        <v>1342768660.5332718</v>
       </c>
       <c r="F30" s="5">
-        <v>4630911763.7909737</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
+        <v>3376630762.1918292</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3">
-        <v>6911494148.5381889</v>
+        <v>6142014667.6756134</v>
       </c>
       <c r="C31" s="5">
-        <v>448953752.27677071</v>
+        <v>0</v>
       </c>
       <c r="D31" s="5">
-        <v>1743140973.5363173</v>
+        <v>79218763.350785345</v>
       </c>
       <c r="E31" s="5">
-        <v>1342768660.5332718</v>
+        <v>3101284137.4615149</v>
       </c>
       <c r="F31" s="5">
-        <v>3376630762.1918292</v>
+        <v>2961511766.8633137</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2553,16 +2553,16 @@
         <v>39</v>
       </c>
       <c r="B32" s="3">
-        <v>6101227736.36129</v>
+        <v>5949295525.1612902</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
       </c>
       <c r="D32" s="5">
-        <v>1062660013.678593</v>
+        <v>1058339666.4406782</v>
       </c>
       <c r="E32" s="5">
-        <v>2656313477.5214071</v>
+        <v>2508701613.5593219</v>
       </c>
       <c r="F32" s="5">
         <v>2382254245.1612902</v>
@@ -2570,42 +2570,45 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3">
-        <v>5990675697.0873795</v>
+        <v>5906586360</v>
       </c>
       <c r="C33" s="5">
-        <v>0</v>
+        <v>527893800</v>
       </c>
       <c r="D33" s="5">
-        <v>79218763.350785345</v>
+        <v>1438151160</v>
       </c>
       <c r="E33" s="5">
-        <v>3101284137.4615149</v>
+        <v>1731555720</v>
       </c>
       <c r="F33" s="5">
-        <v>2810172796.2750788</v>
+        <v>2208985680</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
-        <v>5906586360</v>
+        <v>5879990244.5271244</v>
       </c>
       <c r="C34" s="5">
-        <v>527893800</v>
+        <v>139533100.53823882</v>
       </c>
       <c r="D34" s="5">
-        <v>1438151160</v>
+        <v>1913663885.6373537</v>
       </c>
       <c r="E34" s="5">
-        <v>1731555720</v>
+        <v>1951776106.581816</v>
       </c>
       <c r="F34" s="5">
-        <v>2208985680</v>
+        <v>1875017151.7697163</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2650,65 +2653,62 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3">
-        <v>5606826889.6884146</v>
+        <v>5573298567.0884571</v>
       </c>
       <c r="C37" s="5">
-        <v>139533100.53823882</v>
+        <v>0</v>
       </c>
       <c r="D37" s="5">
-        <v>1913663885.6373537</v>
+        <v>29926041.600000001</v>
       </c>
       <c r="E37" s="5">
-        <v>1951776106.581816</v>
+        <v>217539302.40000001</v>
       </c>
       <c r="F37" s="5">
-        <v>1601853796.9310064</v>
-      </c>
-      <c r="H37" t="s">
-        <v>45</v>
+        <v>5325833223.0884571</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3">
-        <v>5573298567.0884571</v>
+        <v>5453740491.8690186</v>
       </c>
       <c r="C38" s="5">
-        <v>0</v>
+        <v>762592738.30147469</v>
       </c>
       <c r="D38" s="5">
-        <v>29926041.600000001</v>
+        <v>1344080090.3669519</v>
       </c>
       <c r="E38" s="5">
-        <v>217539302.40000001</v>
+        <v>1761181101.7872512</v>
       </c>
       <c r="F38" s="5">
-        <v>5325833223.0884571</v>
+        <v>1585886561.4133408</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3">
-        <v>5453740491.8690186</v>
+        <v>5116900247.2717247</v>
       </c>
       <c r="C39" s="5">
-        <v>762592738.30147469</v>
+        <v>0</v>
       </c>
       <c r="D39" s="5">
-        <v>1344080090.3669519</v>
+        <v>427347032.27586204</v>
       </c>
       <c r="E39" s="5">
-        <v>1761181101.7872512</v>
+        <v>3058202199.7241378</v>
       </c>
       <c r="F39" s="5">
-        <v>1585886561.4133408</v>
+        <v>1631351015.2717252</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,42 +2756,42 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B42" s="3">
-        <v>4385764252.279192</v>
+        <v>4438206432</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
       </c>
       <c r="D42" s="5">
-        <v>36129004.69273743</v>
+        <v>1640086272</v>
       </c>
       <c r="E42" s="5">
-        <v>1727381640.615274</v>
+        <v>1606841280</v>
       </c>
       <c r="F42" s="5">
-        <v>2622253606.9711804</v>
+        <v>1191278880</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3">
-        <v>4323070789.2158594</v>
+        <v>4385764252.279192</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
       </c>
       <c r="D43" s="5">
-        <v>427347032.27586204</v>
+        <v>36129004.69273743</v>
       </c>
       <c r="E43" s="5">
-        <v>3058202199.7241378</v>
+        <v>1727381640.615274</v>
       </c>
       <c r="F43" s="5">
-        <v>837521557.21585906</v>
+        <v>2622253606.9711804</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2839,7 +2839,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="3">
-        <v>3933191705.142858</v>
+        <v>4039195816.874702</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5">
-        <v>3933191705.142858</v>
+        <v>4039195816.874702</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3282,30 +3282,30 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B68" s="3">
-        <v>2331282028.8999724</v>
+        <v>2415117184.6153846</v>
       </c>
       <c r="C68" s="5">
-        <v>421051880.65882349</v>
+        <v>0</v>
       </c>
       <c r="D68" s="5">
-        <v>509551631.80374491</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5">
-        <v>1061372135.5374315</v>
+        <v>1140130021.6216216</v>
       </c>
       <c r="F68" s="5">
-        <v>339306380.89997262</v>
+        <v>1274987162.993763</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B69" s="3">
-        <v>2228804207.5237622</v>
+        <v>2400222713.086956</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
@@ -3314,30 +3314,30 @@
         <v>0</v>
       </c>
       <c r="E69" s="5">
-        <v>956397301.41804278</v>
+        <v>0</v>
       </c>
       <c r="F69" s="5">
-        <v>1272406906.1057196</v>
+        <v>2400222713.086956</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70" s="3">
-        <v>2225953179.630487</v>
+        <v>2331282028.8999724</v>
       </c>
       <c r="C70" s="5">
-        <v>282429558.24871391</v>
+        <v>421051880.65882349</v>
       </c>
       <c r="D70" s="5">
-        <v>839493342.00112569</v>
+        <v>509551631.80374491</v>
       </c>
       <c r="E70" s="5">
-        <v>527154762.5736897</v>
+        <v>1061372135.5374315</v>
       </c>
       <c r="F70" s="5">
-        <v>576875516.80695784</v>
+        <v>339306380.89997262</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3345,7 +3345,7 @@
         <v>82</v>
       </c>
       <c r="B71" s="3">
-        <v>2224632772.7707467</v>
+        <v>2260774261.7735519</v>
       </c>
       <c r="C71" s="5">
         <v>33058019.07692308</v>
@@ -3354,210 +3354,210 @@
         <v>0</v>
       </c>
       <c r="E71" s="5">
-        <v>1438101604.4422932</v>
+        <v>1197763302.4861026</v>
       </c>
       <c r="F71" s="5">
-        <v>753473149.25153053</v>
+        <v>1029952940.2105262</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3">
-        <v>2204868414.8739605</v>
+        <v>2228804207.5237622</v>
       </c>
       <c r="C72" s="5">
-        <v>242895849.88967299</v>
+        <v>0</v>
       </c>
       <c r="D72" s="5">
-        <v>766706505.49984884</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>738036663.47840273</v>
+        <v>956397301.41804278</v>
       </c>
       <c r="F72" s="5">
-        <v>457229396.00603557</v>
+        <v>1272406906.1057196</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3">
-        <v>2191319383.5265698</v>
+        <v>2225953179.630487</v>
       </c>
       <c r="C73" s="5">
-        <v>0</v>
+        <v>282429558.24871391</v>
       </c>
       <c r="D73" s="5">
-        <v>357796397.94420666</v>
+        <v>839493342.00112569</v>
       </c>
       <c r="E73" s="5">
-        <v>879913758.02418661</v>
+        <v>527154762.5736897</v>
       </c>
       <c r="F73" s="5">
-        <v>953609227.55817664</v>
+        <v>576875516.80695784</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3">
-        <v>2153906773.5327101</v>
+        <v>2204868414.8739605</v>
       </c>
       <c r="C74" s="5">
-        <v>0</v>
+        <v>242895849.88967299</v>
       </c>
       <c r="D74" s="5">
-        <v>364064310.12391865</v>
+        <v>766706505.49984884</v>
       </c>
       <c r="E74" s="5">
-        <v>853907527.31304812</v>
+        <v>738036663.47840273</v>
       </c>
       <c r="F74" s="5">
-        <v>935934936.09574342</v>
+        <v>457229396.00603557</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3">
-        <v>2145457322.3679297</v>
+        <v>2191319383.5265698</v>
       </c>
       <c r="C75" s="5">
         <v>0</v>
       </c>
       <c r="D75" s="5">
-        <v>428630400</v>
+        <v>357796397.94420666</v>
       </c>
       <c r="E75" s="5">
-        <v>1020961564.0449438</v>
+        <v>879913758.02418661</v>
       </c>
       <c r="F75" s="5">
-        <v>695865358.32298589</v>
+        <v>953609227.55817664</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3">
-        <v>2081703302.2763748</v>
+        <v>2153906773.5327101</v>
       </c>
       <c r="C76" s="5">
         <v>0</v>
       </c>
       <c r="D76" s="5">
-        <v>348512544</v>
+        <v>364064310.12391865</v>
       </c>
       <c r="E76" s="5">
-        <v>670380384.21458721</v>
+        <v>853907527.31304812</v>
       </c>
       <c r="F76" s="5">
-        <v>1062810374.0617876</v>
+        <v>935934936.09574342</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" s="3">
-        <v>2068925423.9999998</v>
+        <v>2145457322.3679297</v>
       </c>
       <c r="C77" s="5">
-        <v>578106867.41040814</v>
+        <v>0</v>
       </c>
       <c r="D77" s="5">
-        <v>1019093453.8482213</v>
+        <v>428630400</v>
       </c>
       <c r="E77" s="5">
-        <v>471725102.74137038</v>
+        <v>1020961564.0449438</v>
       </c>
       <c r="F77" s="5">
-        <v>0</v>
+        <v>695865358.32298589</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3">
-        <v>2060823600</v>
+        <v>2081703302.2763748</v>
       </c>
       <c r="C78" s="5">
         <v>0</v>
       </c>
       <c r="D78" s="5">
-        <v>0</v>
+        <v>348512544</v>
       </c>
       <c r="E78" s="5">
-        <v>1140130021.6216216</v>
+        <v>670380384.21458721</v>
       </c>
       <c r="F78" s="5">
-        <v>920693578.37837839</v>
+        <v>1062810374.0617876</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79" s="3">
-        <v>1881736202.5120773</v>
+        <v>2068925423.9999998</v>
       </c>
       <c r="C79" s="5">
-        <v>546135297.25504398</v>
+        <v>578106867.41040814</v>
       </c>
       <c r="D79" s="5">
-        <v>740098619.98633528</v>
+        <v>1019093453.8482213</v>
       </c>
       <c r="E79" s="5">
-        <v>291411202.75862068</v>
+        <v>471725102.74137038</v>
       </c>
       <c r="F79" s="5">
-        <v>304091082.51207733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80" s="3">
-        <v>1685370462.7094495</v>
+        <v>1881736202.5120773</v>
       </c>
       <c r="C80" s="5">
-        <v>294974590.28370929</v>
+        <v>546135297.25504398</v>
       </c>
       <c r="D80" s="5">
-        <v>582944339.35646939</v>
+        <v>740098619.98633528</v>
       </c>
       <c r="E80" s="5">
-        <v>461728286.35982144</v>
+        <v>291411202.75862068</v>
       </c>
       <c r="F80" s="5">
-        <v>345723246.70944953</v>
+        <v>304091082.51207733</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="3">
-        <v>1661338107</v>
+        <v>1685370462.7094495</v>
       </c>
       <c r="C81" s="5">
-        <v>0</v>
+        <v>294974590.28370929</v>
       </c>
       <c r="D81" s="5">
-        <v>0</v>
+        <v>582944339.35646939</v>
       </c>
       <c r="E81" s="5">
-        <v>0</v>
+        <v>461728286.35982144</v>
       </c>
       <c r="F81" s="5">
-        <v>1661338107</v>
+        <v>345723246.70944953</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -4188,162 +4188,162 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B113" s="3">
-        <v>955164519.65712428</v>
+        <v>967534700.9361701</v>
       </c>
       <c r="C113" s="5">
         <v>0</v>
       </c>
       <c r="D113" s="5">
-        <v>16662118.4</v>
+        <v>0</v>
       </c>
       <c r="E113" s="5">
-        <v>214119607.30165744</v>
+        <v>334064585.33807826</v>
       </c>
       <c r="F113" s="5">
-        <v>724382793.95546687</v>
+        <v>633470115.59809184</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" s="3">
-        <v>884779478.70967746</v>
+        <v>955164519.65712428</v>
       </c>
       <c r="C114" s="5">
         <v>0</v>
       </c>
       <c r="D114" s="5">
-        <v>0</v>
+        <v>16662118.4</v>
       </c>
       <c r="E114" s="5">
-        <v>365904000</v>
+        <v>214119607.30165744</v>
       </c>
       <c r="F114" s="5">
-        <v>518875478.7096774</v>
+        <v>724382793.95546687</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" s="3">
-        <v>843473614.00094819</v>
+        <v>884779478.70967746</v>
       </c>
       <c r="C115" s="5">
-        <v>89585346.206896544</v>
+        <v>0</v>
       </c>
       <c r="D115" s="5">
-        <v>271288948.00205868</v>
+        <v>0</v>
       </c>
       <c r="E115" s="5">
-        <v>214483175.79104477</v>
+        <v>365904000</v>
       </c>
       <c r="F115" s="5">
-        <v>268116144.00094825</v>
+        <v>518875478.7096774</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B116" s="3">
-        <v>842697000.00000012</v>
+        <v>843473614.00094819</v>
       </c>
       <c r="C116" s="5">
-        <v>0</v>
+        <v>89585346.206896544</v>
       </c>
       <c r="D116" s="5">
-        <v>68016207.493857503</v>
+        <v>271288948.00205868</v>
       </c>
       <c r="E116" s="5">
-        <v>728765193.80343986</v>
+        <v>214483175.79104477</v>
       </c>
       <c r="F116" s="5">
-        <v>45915598.702702709</v>
+        <v>268116144.00094825</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117" s="3">
-        <v>797246433.07382548</v>
+        <v>842697000.00000012</v>
       </c>
       <c r="C117" s="5">
-        <v>101701389.66292135</v>
+        <v>0</v>
       </c>
       <c r="D117" s="5">
-        <v>167736969.60980591</v>
+        <v>68016207.493857503</v>
       </c>
       <c r="E117" s="5">
-        <v>237349138.13903743</v>
+        <v>728765193.80343986</v>
       </c>
       <c r="F117" s="5">
-        <v>290458935.6620608</v>
+        <v>45915598.702702709</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118" s="3">
-        <v>796103123.30206382</v>
+        <v>797246433.07382548</v>
       </c>
       <c r="C118" s="5">
-        <v>0</v>
+        <v>101701389.66292135</v>
       </c>
       <c r="D118" s="5">
-        <v>0</v>
+        <v>167736969.60980591</v>
       </c>
       <c r="E118" s="5">
-        <v>90166885.714285716</v>
+        <v>237349138.13903743</v>
       </c>
       <c r="F118" s="5">
-        <v>705936237.58777809</v>
+        <v>290458935.6620608</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" s="3">
-        <v>769804482.78260875</v>
+        <v>796103123.30206382</v>
       </c>
       <c r="C119" s="5">
         <v>0</v>
       </c>
       <c r="D119" s="5">
-        <v>13554699.130434781</v>
+        <v>0</v>
       </c>
       <c r="E119" s="5">
-        <v>367118324.86956525</v>
+        <v>90166885.714285716</v>
       </c>
       <c r="F119" s="5">
-        <v>389131458.78260869</v>
+        <v>705936237.58777809</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B120" s="3">
-        <v>769443840</v>
+        <v>769804482.78260875</v>
       </c>
       <c r="C120" s="5">
         <v>0</v>
       </c>
       <c r="D120" s="5">
-        <v>0</v>
+        <v>13554699.130434781</v>
       </c>
       <c r="E120" s="5">
-        <v>334064585.33807826</v>
+        <v>367118324.86956525</v>
       </c>
       <c r="F120" s="5">
-        <v>435379254.66192168</v>
+        <v>389131458.78260869</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -5951,24 +5951,19 @@
         <v>218</v>
       </c>
       <c r="B201" s="3">
-        <f>SUM(B2:B200)</f>
-        <v>895353367342.97595</v>
+        <v>867136513228.45239</v>
       </c>
       <c r="C201" s="3">
-        <f t="shared" ref="C201:F201" si="0">SUM(C2:C200)</f>
         <v>65532712820.814781</v>
       </c>
       <c r="D201" s="3">
-        <f t="shared" si="0"/>
-        <v>219853086747.02264</v>
+        <v>188213786530.13763</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" si="0"/>
-        <v>260742470415.99835</v>
+        <v>260250742863.7272</v>
       </c>
       <c r="F201" s="3">
-        <f t="shared" si="0"/>
-        <v>349225097359.14001</v>
+        <v>353139271013.77264</v>
       </c>
     </row>
   </sheetData>
